--- a/工时统计表.xlsx
+++ b/工时统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,38 @@
   </si>
   <si>
     <t>招商加盟H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面排版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面排版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面逻辑处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面排版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求讨论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,13 +292,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -590,13 +622,13 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -628,7 +660,7 @@
       <c r="A4" s="1">
         <v>42136</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="2">
@@ -649,7 +681,7 @@
       <c r="A5" s="1">
         <v>42137</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="D5" s="2">
         <v>4</v>
       </c>
@@ -665,7 +697,7 @@
       <c r="A6" s="1">
         <v>42138</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -675,7 +707,7 @@
       <c r="A7" s="1">
         <v>42139</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="D7" s="2">
         <v>2</v>
       </c>
@@ -691,7 +723,7 @@
       <c r="A8" s="1">
         <v>42140</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2">
@@ -709,7 +741,7 @@
       <c r="A9" s="1">
         <v>42141</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="D9" s="2">
         <v>2</v>
       </c>
@@ -924,13 +956,13 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -1466,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1479,13 +1511,13 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1549,7 +1581,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
@@ -1600,36 +1632,72 @@
       <c r="A10" s="1">
         <v>42193</v>
       </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>42194</v>
       </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>42195</v>
       </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>42196</v>
       </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1659,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>42200</v>
       </c>
@@ -1668,16 +1736,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>42201</v>
       </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>42202</v>
       </c>
@@ -1686,25 +1763,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>42203</v>
       </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>42204</v>
       </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>42205</v>
       </c>
@@ -1713,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>42206</v>
       </c>
@@ -1722,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>42207</v>
       </c>
@@ -1731,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>42208</v>
       </c>
@@ -1740,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>42209</v>
       </c>
@@ -1749,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>42210</v>
       </c>
@@ -1758,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>42211</v>
       </c>
@@ -1767,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>42212</v>
       </c>
@@ -1776,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>42213</v>
       </c>
@@ -1785,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>42214</v>
       </c>
@@ -1794,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>42215</v>
       </c>
@@ -1819,11 +1914,11 @@
       </c>
       <c r="C34" s="11">
         <f>SUM(C4:C22)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34" s="11">
         <f>SUM(D4:D22)</f>
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E34" s="11">
         <f>SUM(E4:E22)</f>
@@ -1835,7 +1930,7 @@
       </c>
       <c r="G34" s="11">
         <f>SUM(G4:G22)</f>
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/工时统计表.xlsx
+++ b/工时统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,14 @@
   </si>
   <si>
     <t>需求讨论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大屏游戏开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1499,7 +1507,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1803,9 +1811,18 @@
       <c r="A22" s="1">
         <v>42205</v>
       </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
@@ -1918,7 +1935,7 @@
       </c>
       <c r="D34" s="11">
         <f>SUM(D4:D22)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E34" s="11">
         <f>SUM(E4:E22)</f>
@@ -1930,7 +1947,7 @@
       </c>
       <c r="G34" s="11">
         <f>SUM(G4:G22)</f>
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/工时统计表.xlsx
+++ b/工时统计表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,30 @@
   </si>
   <si>
     <t>大屏游戏开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢钻石开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1506,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1829,45 +1853,90 @@
       <c r="A23" s="1">
         <v>42206</v>
       </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>42207</v>
       </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24">
+        <v>13</v>
+      </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>42208</v>
       </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>42209</v>
       </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>42210</v>
       </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1883,9 +1952,18 @@
       <c r="A29" s="1">
         <v>42212</v>
       </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1934,8 +2012,8 @@
         <v>5</v>
       </c>
       <c r="D34" s="11">
-        <f>SUM(D4:D22)</f>
-        <v>47</v>
+        <f>SUM(D4:D23)</f>
+        <v>51</v>
       </c>
       <c r="E34" s="11">
         <f>SUM(E4:E22)</f>
